--- a/Docs/Project1_Journal.xlsx
+++ b/Docs/Project1_Journal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michu\git\BTI7301-Project1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>KalenderWoche</t>
   </si>
@@ -41,27 +41,12 @@
     <t>alle</t>
   </si>
   <si>
-    <t>Kürzel:</t>
-  </si>
-  <si>
     <t>platc1</t>
   </si>
   <si>
-    <t>Casimir Platzer</t>
-  </si>
-  <si>
     <t>schmm11</t>
   </si>
   <si>
-    <t>Michael Schmid</t>
-  </si>
-  <si>
-    <t>kuek(?)</t>
-  </si>
-  <si>
-    <t>Kevin Künzi</t>
-  </si>
-  <si>
     <t>- Erste Besprechung mit Kai</t>
   </si>
   <si>
@@ -161,10 +146,31 @@
     <t>- Erste Versionen der Dokumentation</t>
   </si>
   <si>
-    <t>kunzk4</t>
-  </si>
-  <si>
-    <t>platc2</t>
+    <t>- SinglePlayer Mode</t>
+  </si>
+  <si>
+    <t>52/1</t>
+  </si>
+  <si>
+    <t>- SinglePlayer Mode, new Map etc</t>
+  </si>
+  <si>
+    <t>- Multiplayer Mode</t>
+  </si>
+  <si>
+    <t>- Bug Fixing, Ressources korrekt einbinden</t>
+  </si>
+  <si>
+    <t>kevin &amp; platc1</t>
+  </si>
+  <si>
+    <t>-Control Screen</t>
+  </si>
+  <si>
+    <t>- collision Detection Multiplayer</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -188,21 +194,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -239,17 +239,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -265,6 +284,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -593,7 +618,7 @@
     <col min="3" max="3" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,11 +628,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>38</v>
       </c>
@@ -617,352 +640,322 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>39</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>40</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>41</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>42</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>43</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>25</v>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
-        <v>24</v>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>44</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>8</v>
+      <c r="B23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>45</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>30</v>
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>30</v>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>6</v>
+      <c r="B27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>46</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>19</v>
+      <c r="B29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>25</v>
+      <c r="B30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>47</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>19</v>
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="15">
+      <c r="A35" s="14">
         <v>48</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>35</v>
+      <c r="B35" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B36" s="7" t="s">
-        <v>37</v>
+      <c r="B36" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>49</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>38</v>
+      <c r="B38" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>50</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>8</v>
+      <c r="B40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B41" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>19</v>
+      <c r="B41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B42" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>43</v>
+      <c r="B42" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B43" s="8" t="s">
-        <v>41</v>
+      <c r="B43" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -970,18 +963,83 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>51</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="15">
+        <v>2</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
+      <c r="C51" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="15">
+        <v>3</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
